--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3507.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3507.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.282534274894131</v>
+        <v>1.865495324134827</v>
       </c>
       <c r="B1">
-        <v>3.50159588905809</v>
+        <v>3.207775115966797</v>
       </c>
       <c r="C1">
-        <v>5.870087957999733</v>
+        <v>2.522902250289917</v>
       </c>
       <c r="D1">
-        <v>2.144143229593141</v>
+        <v>2.411839962005615</v>
       </c>
       <c r="E1">
-        <v>1.328805366404127</v>
+        <v>2.295898914337158</v>
       </c>
     </row>
   </sheetData>
